--- a/视频脚本文件-template.xlsx
+++ b/视频脚本文件-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\program\easy_clip\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\360Downloads\easy_clip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC32E66-D1DA-4DF6-AF7A-B62F14A9B716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E6511E-0D8E-4446-A096-01F49562331D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{E2392158-021E-4416-9639-6906DC59971B}"/>
+    <workbookView xWindow="2400" yWindow="1170" windowWidth="16200" windowHeight="11175" xr2:uid="{E2392158-021E-4416-9639-6906DC59971B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>城西低总价住宅热卖中！项目坐落于主城西中轴-红光大道，均价1.2万起，建面88-112㎡。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +80,14 @@
   </si>
   <si>
     <t>成都\滨江玺樾住宅\封面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都\滨江玺樾住宅\BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景音乐路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,20 +470,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029F7F16-9AA2-4E53-A58F-F15A478D4CCD}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.9296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.59765625" customWidth="1"/>
+    <col min="1" max="1" width="48.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -494,8 +494,11 @@
       <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="57.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="57.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,8 +508,11 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="57.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="57.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -514,7 +520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="57.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="57.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -522,7 +528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="57.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="57.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -530,7 +536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="57.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="57.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
